--- a/samples/style-showcase.xlsx
+++ b/samples/style-showcase.xlsx
@@ -8,6 +8,7 @@
     <sheet name="Tables" sheetId="3" r:id="rId3"/>
     <sheet name="Alignments" sheetId="4" r:id="rId4"/>
     <sheet name="Colors" sheetId="5" r:id="rId5"/>
+    <sheet name="Gradients" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="999999"/>
 </workbook>
@@ -1255,7 +1256,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="161">
+  <fills count="171">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2024,6 +2025,247 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9ACD32"/>
       </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="-90">
+        <stop position="0">
+          <color rgb="FFDBDCD7"/>
+        </stop>
+        <stop position=".24">
+          <color rgb="FFDDDCD7"/>
+        </stop>
+        <stop position=".3">
+          <color rgb="FFE2C9CC"/>
+        </stop>
+        <stop position=".46">
+          <color rgb="FFE7627D"/>
+        </stop>
+        <stop position=".59">
+          <color rgb="FFB8235A"/>
+        </stop>
+        <stop position=".71">
+          <color rgb="FF801357"/>
+        </stop>
+        <stop position=".84">
+          <color rgb="FF3D1635"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF1C1A27"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="-90">
+        <stop position="0">
+          <color rgb="FF3F51B1"/>
+        </stop>
+        <stop position=".13">
+          <color rgb="FF5A55AE"/>
+        </stop>
+        <stop position=".25">
+          <color rgb="FF7B5FAC"/>
+        </stop>
+        <stop position=".38">
+          <color rgb="FF8F6AAE"/>
+        </stop>
+        <stop position=".5">
+          <color rgb="FFA86AA4"/>
+        </stop>
+        <stop position=".62">
+          <color rgb="FFCC6B8E"/>
+        </stop>
+        <stop position=".75">
+          <color rgb="FFF18271"/>
+        </stop>
+        <stop position=".87">
+          <color rgb="FFF3A469"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFF7C978"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="-.8">
+        <stop position="0">
+          <color rgb="FF000000"/>
+        </stop>
+        <stop position=".104">
+          <color rgb="FF000000"/>
+        </stop>
+        <stop position=".371">
+          <color rgb="FFFF0000"/>
+        </stop>
+        <stop position=".643">
+          <color rgb="FFFFD833"/>
+        </stop>
+        <stop position=".905">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="20.7">
+        <stop position="0">
+          <color rgb="FFFF512F"/>
+        </stop>
+        <stop position=".017">
+          <color rgb="FFFF512F"/>
+        </stop>
+        <stop position=".082">
+          <color rgb="FFFFA72F"/>
+        </stop>
+        <stop position=".162">
+          <color rgb="FFDAFD01"/>
+        </stop>
+        <stop position=".234">
+          <color rgb="FF62EA14"/>
+        </stop>
+        <stop position=".328">
+          <color rgb="FF45C12A"/>
+        </stop>
+        <stop position=".437">
+          <color rgb="FF07F995"/>
+        </stop>
+        <stop position=".553">
+          <color rgb="FF06C8D9"/>
+        </stop>
+        <stop position=".655">
+          <color rgb="FF1233E9"/>
+        </stop>
+        <stop position=".745">
+          <color rgb="FF7A3BCA"/>
+        </stop>
+        <stop position=".823">
+          <color rgb="FFE707F9"/>
+        </stop>
+        <stop position=".914">
+          <color rgb="FFCA3BA3"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFCA3BA3"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="-110">
+        <stop position="0">
+          <color rgb="FFD558C8"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF24D292"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="12.2">
+        <stop position="0">
+          <color rgb="FF6D7696"/>
+        </stop>
+        <stop position=".071">
+          <color rgb="FF6D7696"/>
+        </stop>
+        <stop position=".147">
+          <color rgb="FF59484F"/>
+        </stop>
+        <stop position=".28">
+          <color rgb="FF455C4F"/>
+        </stop>
+        <stop position=".434">
+          <color rgb="FFCC5543"/>
+        </stop>
+        <stop position=".602">
+          <color rgb="FFEDB579"/>
+        </stop>
+        <stop position=".768">
+          <color rgb="FFDBE6AF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFDBE6AF"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="-90">
+        <stop position="0">
+          <color rgb="FF0FD850"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFF9F047"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="15.9">
+        <stop position="0">
+          <color rgb="FF0FD1A5"/>
+        </stop>
+        <stop position=".038">
+          <color rgb="FF0FD1A5"/>
+        </stop>
+        <stop position=".208">
+          <color rgb="FF0F9DD1"/>
+        </stop>
+        <stop position=".519">
+          <color rgb="FF850DE6"/>
+        </stop>
+        <stop position=".731">
+          <color rgb="FFE60DCA"/>
+        </stop>
+        <stop position=".941">
+          <color rgb="FFF2B46B"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFF2B46B"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="19.6">
+        <stop position="0">
+          <color rgb="FF2119B4"/>
+        </stop>
+        <stop position=".112">
+          <color rgb="FF2119B4"/>
+        </stop>
+        <stop position=".552">
+          <color rgb="FFFD1D1D"/>
+        </stop>
+        <stop position=".911">
+          <color rgb="FFFCB045"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFCB045"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="9.6">
+        <stop position="0">
+          <color rgb="FF708098"/>
+        </stop>
+        <stop position=".106">
+          <color rgb="FF708098"/>
+        </stop>
+        <stop position=".329">
+          <color rgb="FFF2E3EA"/>
+        </stop>
+        <stop position=".527">
+          <color rgb="FFEACAD5"/>
+        </stop>
+        <stop position=".728">
+          <color rgb="FFDCE3EF"/>
+        </stop>
+        <stop position=".811">
+          <color rgb="FFB9CDE3"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF9AB4D4"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="17">
@@ -2141,7 +2383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2369,6 +2611,16 @@
     <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4513,25 +4765,25 @@
       <c r="A2" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="191">
-        <v/>
-      </c>
-      <c r="C2" s="192">
-        <v/>
-      </c>
-      <c r="D2" s="193">
-        <v/>
-      </c>
-      <c r="E2" s="194">
-        <v/>
-      </c>
-      <c r="F2" s="195">
-        <v/>
-      </c>
-      <c r="G2" s="196">
-        <v/>
-      </c>
-      <c r="H2" s="197">
+      <c r="B2" s="201">
+        <v/>
+      </c>
+      <c r="C2" s="202">
+        <v/>
+      </c>
+      <c r="D2" s="203">
+        <v/>
+      </c>
+      <c r="E2" s="204">
+        <v/>
+      </c>
+      <c r="F2" s="205">
+        <v/>
+      </c>
+      <c r="G2" s="206">
+        <v/>
+      </c>
+      <c r="H2" s="207">
         <v/>
       </c>
     </row>
@@ -4539,25 +4791,25 @@
       <c r="A3" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="208" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="200" t="s">
+      <c r="D3" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="201" t="s">
+      <c r="E3" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="202" t="s">
+      <c r="F3" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="203" t="s">
+      <c r="G3" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="204" t="s">
+      <c r="H3" s="214" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4565,25 +4817,25 @@
       <c r="A4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="216" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="207" t="s">
+      <c r="D4" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="219" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="210" t="s">
+      <c r="G4" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="211" t="s">
+      <c r="H4" s="221" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4591,25 +4843,25 @@
       <c r="A5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="222" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="216" t="s">
+      <c r="F5" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="217" t="s">
+      <c r="G5" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="218" t="s">
+      <c r="H5" s="228" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4617,25 +4869,25 @@
       <c r="A6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="221" t="s">
+      <c r="D6" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="222" t="s">
+      <c r="E6" s="232" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="223" t="s">
+      <c r="F6" s="233" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="224" t="s">
+      <c r="G6" s="234" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="225" t="s">
+      <c r="H6" s="235" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4643,25 +4895,25 @@
       <c r="A7" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="236" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="227" t="s">
+      <c r="C7" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="238" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="229" t="s">
+      <c r="E7" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="230" t="s">
+      <c r="F7" s="240" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="231" t="s">
+      <c r="G7" s="241" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="232" t="s">
+      <c r="H7" s="242" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6330,4 +6582,64 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="195" customHeight="1">
+      <c r="A1" s="191">
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="195" customHeight="1">
+      <c r="A2" s="192">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="195" customHeight="1">
+      <c r="A3" s="193">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="195" customHeight="1">
+      <c r="A4" s="194">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="195" customHeight="1">
+      <c r="A5" s="195">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="195" customHeight="1">
+      <c r="A6" s="196">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="195" customHeight="1">
+      <c r="A7" s="197">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="195" customHeight="1">
+      <c r="A8" s="198">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="195" customHeight="1">
+      <c r="A9" s="199">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="195" customHeight="1">
+      <c r="A10" s="200">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/samples/style-showcase.xlsx
+++ b/samples/style-showcase.xlsx
@@ -9,13 +9,14 @@
     <sheet name="Alignments" sheetId="4" r:id="rId4"/>
     <sheet name="Colors" sheetId="5" r:id="rId5"/>
     <sheet name="Gradients" sheetId="6" r:id="rId6"/>
+    <sheet name="Rich Text" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="404">
   <si>
     <t>none</t>
   </si>
@@ -1221,13 +1222,144 @@
   </si>
   <si>
     <t>9ACD32</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="20"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FFFFFF00"/>
+        <sz val="20"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF00FF00"/>
+        <sz val="20"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF00FFFF"/>
+        <sz val="20"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="20"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FFFF00FF"/>
+        <sz val="20"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="20"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">The chemical formula of glucose is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <color rgb="FF0000FF"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <color rgb="FF0000FF"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <color rgb="FF0000FF"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>6</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1253,6 +1385,12 @@
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <b/>
       <u val="none"/>
     </font>
   </fonts>
@@ -2383,7 +2521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2621,6 +2759,9 @@
     <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4765,25 +4906,25 @@
       <c r="A2" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="201">
-        <v/>
-      </c>
-      <c r="C2" s="202">
-        <v/>
-      </c>
-      <c r="D2" s="203">
-        <v/>
-      </c>
-      <c r="E2" s="204">
-        <v/>
-      </c>
-      <c r="F2" s="205">
-        <v/>
-      </c>
-      <c r="G2" s="206">
-        <v/>
-      </c>
-      <c r="H2" s="207">
+      <c r="B2" s="202">
+        <v/>
+      </c>
+      <c r="C2" s="203">
+        <v/>
+      </c>
+      <c r="D2" s="204">
+        <v/>
+      </c>
+      <c r="E2" s="205">
+        <v/>
+      </c>
+      <c r="F2" s="206">
+        <v/>
+      </c>
+      <c r="G2" s="207">
+        <v/>
+      </c>
+      <c r="H2" s="208">
         <v/>
       </c>
     </row>
@@ -4791,25 +4932,25 @@
       <c r="A3" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="210" t="s">
+      <c r="D3" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="211" t="s">
+      <c r="E3" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="213" t="s">
+      <c r="G3" s="214" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="214" t="s">
+      <c r="H3" s="215" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4817,25 +4958,25 @@
       <c r="A4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="216" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="217" t="s">
+      <c r="D4" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="218" t="s">
+      <c r="E4" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="219" t="s">
+      <c r="F4" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="220" t="s">
+      <c r="G4" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="221" t="s">
+      <c r="H4" s="222" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4843,25 +4984,25 @@
       <c r="A5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="225" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="226" t="s">
+      <c r="F5" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="227" t="s">
+      <c r="G5" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="228" t="s">
+      <c r="H5" s="229" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4869,25 +5010,25 @@
       <c r="A6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="230" t="s">
+      <c r="C6" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="231" t="s">
+      <c r="D6" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="233" t="s">
+      <c r="F6" s="234" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="234" t="s">
+      <c r="G6" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="235" t="s">
+      <c r="H6" s="236" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4895,25 +5036,25 @@
       <c r="A7" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="237" t="s">
+      <c r="C7" s="238" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="238" t="s">
+      <c r="D7" s="239" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="239" t="s">
+      <c r="E7" s="240" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="240" t="s">
+      <c r="F7" s="241" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="241" t="s">
+      <c r="G7" s="242" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="242" t="s">
+      <c r="H7" s="243" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6642,4 +6783,24 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="201" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/samples/style-showcase.xlsx
+++ b/samples/style-showcase.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Colors" sheetId="5" r:id="rId5"/>
     <sheet name="Gradients" sheetId="6" r:id="rId6"/>
     <sheet name="Rich Text" sheetId="7" r:id="rId7"/>
+    <sheet name="Orientation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="405">
   <si>
     <t>none</t>
   </si>
@@ -1354,12 +1355,15 @@
       <t>6</t>
     </r>
   </si>
+  <si>
+    <t>CLOCK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1393,8 +1397,13 @@
       <b/>
       <u val="none"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="171">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2405,8 +2414,18 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF18A5C2"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2517,11 +2536,77 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right/>
+      <top style="thick"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick"/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick"/>
+      <top/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2762,6 +2847,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="120"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="150"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2888,6 +2989,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="171" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="171" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="171" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="171" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="120"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="150"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4906,25 +5040,25 @@
       <c r="A2" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="202">
-        <v/>
-      </c>
-      <c r="C2" s="203">
-        <v/>
-      </c>
-      <c r="D2" s="204">
-        <v/>
-      </c>
-      <c r="E2" s="205">
-        <v/>
-      </c>
-      <c r="F2" s="206">
-        <v/>
-      </c>
-      <c r="G2" s="207">
-        <v/>
-      </c>
-      <c r="H2" s="208">
+      <c r="B2" s="208">
+        <v/>
+      </c>
+      <c r="C2" s="209">
+        <v/>
+      </c>
+      <c r="D2" s="210">
+        <v/>
+      </c>
+      <c r="E2" s="211">
+        <v/>
+      </c>
+      <c r="F2" s="212">
+        <v/>
+      </c>
+      <c r="G2" s="213">
+        <v/>
+      </c>
+      <c r="H2" s="214">
         <v/>
       </c>
     </row>
@@ -4932,25 +5066,25 @@
       <c r="A3" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="216" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="212" t="s">
+      <c r="E3" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="213" t="s">
+      <c r="F3" s="219" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="214" t="s">
+      <c r="G3" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="215" t="s">
+      <c r="H3" s="221" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4958,25 +5092,25 @@
       <c r="A4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="222" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="217" t="s">
+      <c r="C4" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="219" t="s">
+      <c r="E4" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="221" t="s">
+      <c r="G4" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="222" t="s">
+      <c r="H4" s="228" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4984,25 +5118,25 @@
       <c r="A5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="223" t="s">
+      <c r="B5" s="229" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="224" t="s">
+      <c r="C5" s="230" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="225" t="s">
+      <c r="D5" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="226" t="s">
+      <c r="E5" s="232" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="227" t="s">
+      <c r="F5" s="233" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="228" t="s">
+      <c r="G5" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="229" t="s">
+      <c r="H5" s="235" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5010,25 +5144,25 @@
       <c r="A6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="230" t="s">
+      <c r="B6" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="237" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="232" t="s">
+      <c r="D6" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="234" t="s">
+      <c r="F6" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="235" t="s">
+      <c r="G6" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="236" t="s">
+      <c r="H6" s="242" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5036,25 +5170,25 @@
       <c r="A7" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="244" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="239" t="s">
+      <c r="D7" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="240" t="s">
+      <c r="E7" s="246" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="241" t="s">
+      <c r="F7" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="242" t="s">
+      <c r="G7" s="248" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="243" t="s">
+      <c r="H7" s="249" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6803,4 +6937,786 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1" style="202"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1" style="202"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1" style="202"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1" style="202"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1" style="202"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1" style="202"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1" style="202"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1" style="202"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1" style="202"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1" style="202"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1" style="202"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1" style="202"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1" style="202"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1" style="202"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1" style="202"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1" style="202"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="9" customHeight="1"/>
+    <row r="2" ht="30" customHeight="1">
+      <c r="B2" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="255">
+        <v/>
+      </c>
+      <c r="D2" s="256">
+        <v/>
+      </c>
+      <c r="E2" s="256">
+        <v/>
+      </c>
+      <c r="F2" s="256">
+        <v/>
+      </c>
+      <c r="G2" s="256">
+        <v/>
+      </c>
+      <c r="H2" s="256">
+        <v/>
+      </c>
+      <c r="I2" s="256">
+        <v/>
+      </c>
+      <c r="J2" s="256">
+        <v/>
+      </c>
+      <c r="K2" s="256">
+        <v/>
+      </c>
+      <c r="L2" s="256">
+        <v/>
+      </c>
+      <c r="M2" s="256">
+        <v/>
+      </c>
+      <c r="N2" s="256">
+        <v/>
+      </c>
+      <c r="O2" s="256">
+        <v/>
+      </c>
+      <c r="P2" s="256">
+        <v/>
+      </c>
+      <c r="Q2" s="257">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="B3" s="252">
+        <v/>
+      </c>
+      <c r="C3" s="258">
+        <v/>
+      </c>
+      <c r="D3" s="202">
+        <v/>
+      </c>
+      <c r="E3" s="202">
+        <v/>
+      </c>
+      <c r="F3" s="202">
+        <v/>
+      </c>
+      <c r="G3" s="202">
+        <v/>
+      </c>
+      <c r="H3" s="202">
+        <v/>
+      </c>
+      <c r="I3" s="202">
+        <v/>
+      </c>
+      <c r="J3" s="202">
+        <v>12</v>
+      </c>
+      <c r="K3" s="202">
+        <v/>
+      </c>
+      <c r="L3" s="202">
+        <v/>
+      </c>
+      <c r="M3" s="202">
+        <v/>
+      </c>
+      <c r="N3" s="202">
+        <v/>
+      </c>
+      <c r="O3" s="202">
+        <v/>
+      </c>
+      <c r="P3" s="202">
+        <v/>
+      </c>
+      <c r="Q3" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="B4" s="252">
+        <v/>
+      </c>
+      <c r="C4" s="258">
+        <v/>
+      </c>
+      <c r="D4" s="202">
+        <v/>
+      </c>
+      <c r="E4" s="202">
+        <v/>
+      </c>
+      <c r="F4" s="202">
+        <v/>
+      </c>
+      <c r="G4" s="260">
+        <v>11</v>
+      </c>
+      <c r="H4" s="202">
+        <v/>
+      </c>
+      <c r="I4" s="202">
+        <v/>
+      </c>
+      <c r="J4" s="202">
+        <v/>
+      </c>
+      <c r="K4" s="202">
+        <v/>
+      </c>
+      <c r="L4" s="202">
+        <v/>
+      </c>
+      <c r="M4" s="261">
+        <v>1</v>
+      </c>
+      <c r="N4" s="202">
+        <v/>
+      </c>
+      <c r="O4" s="202">
+        <v/>
+      </c>
+      <c r="P4" s="202">
+        <v/>
+      </c>
+      <c r="Q4" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="B5" s="252">
+        <v/>
+      </c>
+      <c r="C5" s="258">
+        <v/>
+      </c>
+      <c r="D5" s="202">
+        <v/>
+      </c>
+      <c r="E5" s="202">
+        <v/>
+      </c>
+      <c r="F5" s="202">
+        <v/>
+      </c>
+      <c r="G5" s="202">
+        <v/>
+      </c>
+      <c r="H5" s="202">
+        <v/>
+      </c>
+      <c r="I5" s="202">
+        <v/>
+      </c>
+      <c r="J5" s="202">
+        <v/>
+      </c>
+      <c r="K5" s="202">
+        <v/>
+      </c>
+      <c r="L5" s="202">
+        <v/>
+      </c>
+      <c r="M5" s="202">
+        <v/>
+      </c>
+      <c r="N5" s="202">
+        <v/>
+      </c>
+      <c r="O5" s="202">
+        <v/>
+      </c>
+      <c r="P5" s="202">
+        <v/>
+      </c>
+      <c r="Q5" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="B6" s="252">
+        <v/>
+      </c>
+      <c r="C6" s="258">
+        <v/>
+      </c>
+      <c r="D6" s="202">
+        <v/>
+      </c>
+      <c r="E6" s="262">
+        <v>10</v>
+      </c>
+      <c r="F6" s="202">
+        <v/>
+      </c>
+      <c r="G6" s="202">
+        <v/>
+      </c>
+      <c r="H6" s="202">
+        <v/>
+      </c>
+      <c r="I6" s="202">
+        <v/>
+      </c>
+      <c r="J6" s="202">
+        <v/>
+      </c>
+      <c r="K6" s="202">
+        <v/>
+      </c>
+      <c r="L6" s="202">
+        <v/>
+      </c>
+      <c r="M6" s="202">
+        <v/>
+      </c>
+      <c r="N6" s="202">
+        <v/>
+      </c>
+      <c r="O6" s="263">
+        <v>2</v>
+      </c>
+      <c r="P6" s="202">
+        <v/>
+      </c>
+      <c r="Q6" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="B7" s="252">
+        <v/>
+      </c>
+      <c r="C7" s="258">
+        <v/>
+      </c>
+      <c r="D7" s="202">
+        <v/>
+      </c>
+      <c r="E7" s="202">
+        <v/>
+      </c>
+      <c r="F7" s="202">
+        <v/>
+      </c>
+      <c r="G7" s="202">
+        <v/>
+      </c>
+      <c r="H7" s="202">
+        <v/>
+      </c>
+      <c r="I7" s="202">
+        <v/>
+      </c>
+      <c r="J7" s="202">
+        <v/>
+      </c>
+      <c r="K7" s="202">
+        <v/>
+      </c>
+      <c r="L7" s="202">
+        <v/>
+      </c>
+      <c r="M7" s="202">
+        <v/>
+      </c>
+      <c r="N7" s="202">
+        <v/>
+      </c>
+      <c r="O7" s="202">
+        <v/>
+      </c>
+      <c r="P7" s="202">
+        <v/>
+      </c>
+      <c r="Q7" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="B8" s="252">
+        <v/>
+      </c>
+      <c r="C8" s="258">
+        <v/>
+      </c>
+      <c r="D8" s="202">
+        <v/>
+      </c>
+      <c r="E8" s="202">
+        <v/>
+      </c>
+      <c r="F8" s="202">
+        <v/>
+      </c>
+      <c r="G8" s="202">
+        <v/>
+      </c>
+      <c r="H8" s="202">
+        <v/>
+      </c>
+      <c r="I8" s="202">
+        <v/>
+      </c>
+      <c r="J8" s="202">
+        <v/>
+      </c>
+      <c r="K8" s="202">
+        <v/>
+      </c>
+      <c r="L8" s="202">
+        <v/>
+      </c>
+      <c r="M8" s="202">
+        <v/>
+      </c>
+      <c r="N8" s="202">
+        <v/>
+      </c>
+      <c r="O8" s="202">
+        <v/>
+      </c>
+      <c r="P8" s="202">
+        <v/>
+      </c>
+      <c r="Q8" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="B9" s="252">
+        <v/>
+      </c>
+      <c r="C9" s="258">
+        <v/>
+      </c>
+      <c r="D9" s="202">
+        <v>9</v>
+      </c>
+      <c r="E9" s="202">
+        <v/>
+      </c>
+      <c r="F9" s="202">
+        <v/>
+      </c>
+      <c r="G9" s="202">
+        <v/>
+      </c>
+      <c r="H9" s="202">
+        <v/>
+      </c>
+      <c r="I9" s="202">
+        <v/>
+      </c>
+      <c r="J9" s="202">
+        <v/>
+      </c>
+      <c r="K9" s="202">
+        <v/>
+      </c>
+      <c r="L9" s="202">
+        <v/>
+      </c>
+      <c r="M9" s="202">
+        <v/>
+      </c>
+      <c r="N9" s="202">
+        <v/>
+      </c>
+      <c r="O9" s="202">
+        <v/>
+      </c>
+      <c r="P9" s="202">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="B10" s="252">
+        <v/>
+      </c>
+      <c r="C10" s="258">
+        <v/>
+      </c>
+      <c r="D10" s="202">
+        <v/>
+      </c>
+      <c r="E10" s="202">
+        <v/>
+      </c>
+      <c r="F10" s="202">
+        <v/>
+      </c>
+      <c r="G10" s="202">
+        <v/>
+      </c>
+      <c r="H10" s="202">
+        <v/>
+      </c>
+      <c r="I10" s="202">
+        <v/>
+      </c>
+      <c r="J10" s="202">
+        <v/>
+      </c>
+      <c r="K10" s="202">
+        <v/>
+      </c>
+      <c r="L10" s="202">
+        <v/>
+      </c>
+      <c r="M10" s="202">
+        <v/>
+      </c>
+      <c r="N10" s="202">
+        <v/>
+      </c>
+      <c r="O10" s="202">
+        <v/>
+      </c>
+      <c r="P10" s="202">
+        <v/>
+      </c>
+      <c r="Q10" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="B11" s="252">
+        <v/>
+      </c>
+      <c r="C11" s="258">
+        <v/>
+      </c>
+      <c r="D11" s="202">
+        <v/>
+      </c>
+      <c r="E11" s="202">
+        <v/>
+      </c>
+      <c r="F11" s="202">
+        <v/>
+      </c>
+      <c r="G11" s="202">
+        <v/>
+      </c>
+      <c r="H11" s="202">
+        <v/>
+      </c>
+      <c r="I11" s="202">
+        <v/>
+      </c>
+      <c r="J11" s="202">
+        <v/>
+      </c>
+      <c r="K11" s="202">
+        <v/>
+      </c>
+      <c r="L11" s="202">
+        <v/>
+      </c>
+      <c r="M11" s="202">
+        <v/>
+      </c>
+      <c r="N11" s="202">
+        <v/>
+      </c>
+      <c r="O11" s="202">
+        <v/>
+      </c>
+      <c r="P11" s="202">
+        <v/>
+      </c>
+      <c r="Q11" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="B12" s="252">
+        <v/>
+      </c>
+      <c r="C12" s="258">
+        <v/>
+      </c>
+      <c r="D12" s="202">
+        <v/>
+      </c>
+      <c r="E12" s="263">
+        <v>8</v>
+      </c>
+      <c r="F12" s="202">
+        <v/>
+      </c>
+      <c r="G12" s="202">
+        <v/>
+      </c>
+      <c r="H12" s="202">
+        <v/>
+      </c>
+      <c r="I12" s="202">
+        <v/>
+      </c>
+      <c r="J12" s="202">
+        <v/>
+      </c>
+      <c r="K12" s="202">
+        <v/>
+      </c>
+      <c r="L12" s="202">
+        <v/>
+      </c>
+      <c r="M12" s="202">
+        <v/>
+      </c>
+      <c r="N12" s="202">
+        <v/>
+      </c>
+      <c r="O12" s="262">
+        <v>4</v>
+      </c>
+      <c r="P12" s="202">
+        <v/>
+      </c>
+      <c r="Q12" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="B13" s="252">
+        <v/>
+      </c>
+      <c r="C13" s="258">
+        <v/>
+      </c>
+      <c r="D13" s="202">
+        <v/>
+      </c>
+      <c r="E13" s="202">
+        <v/>
+      </c>
+      <c r="F13" s="202">
+        <v/>
+      </c>
+      <c r="G13" s="202">
+        <v/>
+      </c>
+      <c r="H13" s="202">
+        <v/>
+      </c>
+      <c r="I13" s="202">
+        <v/>
+      </c>
+      <c r="J13" s="202">
+        <v/>
+      </c>
+      <c r="K13" s="202">
+        <v/>
+      </c>
+      <c r="L13" s="202">
+        <v/>
+      </c>
+      <c r="M13" s="202">
+        <v/>
+      </c>
+      <c r="N13" s="202">
+        <v/>
+      </c>
+      <c r="O13" s="202">
+        <v/>
+      </c>
+      <c r="P13" s="202">
+        <v/>
+      </c>
+      <c r="Q13" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="B14" s="252">
+        <v/>
+      </c>
+      <c r="C14" s="258">
+        <v/>
+      </c>
+      <c r="D14" s="202">
+        <v/>
+      </c>
+      <c r="E14" s="202">
+        <v/>
+      </c>
+      <c r="F14" s="202">
+        <v/>
+      </c>
+      <c r="G14" s="261">
+        <v>7</v>
+      </c>
+      <c r="H14" s="202">
+        <v/>
+      </c>
+      <c r="I14" s="202">
+        <v/>
+      </c>
+      <c r="J14" s="202">
+        <v/>
+      </c>
+      <c r="K14" s="202">
+        <v/>
+      </c>
+      <c r="L14" s="202">
+        <v/>
+      </c>
+      <c r="M14" s="260">
+        <v>5</v>
+      </c>
+      <c r="N14" s="202">
+        <v/>
+      </c>
+      <c r="O14" s="202">
+        <v/>
+      </c>
+      <c r="P14" s="202">
+        <v/>
+      </c>
+      <c r="Q14" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="B15" s="252">
+        <v/>
+      </c>
+      <c r="C15" s="258">
+        <v/>
+      </c>
+      <c r="D15" s="202">
+        <v/>
+      </c>
+      <c r="E15" s="202">
+        <v/>
+      </c>
+      <c r="F15" s="202">
+        <v/>
+      </c>
+      <c r="G15" s="202">
+        <v/>
+      </c>
+      <c r="H15" s="202">
+        <v/>
+      </c>
+      <c r="I15" s="202">
+        <v/>
+      </c>
+      <c r="J15" s="202">
+        <v>6</v>
+      </c>
+      <c r="K15" s="202">
+        <v/>
+      </c>
+      <c r="L15" s="202">
+        <v/>
+      </c>
+      <c r="M15" s="202">
+        <v/>
+      </c>
+      <c r="N15" s="202">
+        <v/>
+      </c>
+      <c r="O15" s="202">
+        <v/>
+      </c>
+      <c r="P15" s="202">
+        <v/>
+      </c>
+      <c r="Q15" s="259">
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="B16" s="253">
+        <v/>
+      </c>
+      <c r="C16" s="264">
+        <v/>
+      </c>
+      <c r="D16" s="265">
+        <v/>
+      </c>
+      <c r="E16" s="265">
+        <v/>
+      </c>
+      <c r="F16" s="265">
+        <v/>
+      </c>
+      <c r="G16" s="265">
+        <v/>
+      </c>
+      <c r="H16" s="265">
+        <v/>
+      </c>
+      <c r="I16" s="265">
+        <v/>
+      </c>
+      <c r="J16" s="265">
+        <v/>
+      </c>
+      <c r="K16" s="265">
+        <v/>
+      </c>
+      <c r="L16" s="265">
+        <v/>
+      </c>
+      <c r="M16" s="265">
+        <v/>
+      </c>
+      <c r="N16" s="265">
+        <v/>
+      </c>
+      <c r="O16" s="265">
+        <v/>
+      </c>
+      <c r="P16" s="265">
+        <v/>
+      </c>
+      <c r="Q16" s="266">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B16"/>
+  </mergeCells>
+</worksheet>
 </file>